--- a/www.eia.gov/electricity/monthly/xls/table_2_13_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_13_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 2.13.B. Consumption of Biogenic Municipal Solid Waste for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>Year-to-Date through October 2016 and October 2015 (Thousand Tons)</t>
+    <t>Year-to-Date through November 2016 and November 2015 (Thousand Tons)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,13 +1356,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>2966</v>
+        <v>3253</v>
       </c>
       <c r="C6" s="13">
-        <v>3124</v>
+        <v>3440</v>
       </c>
       <c r="D6" s="14">
-        <v>-5.0999999999999997E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="13">
-        <v>2812</v>
+        <v>3084</v>
       </c>
       <c r="H6" s="13">
-        <v>2945</v>
+        <v>3246</v>
       </c>
       <c r="I6" s="13">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J6" s="13">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>1042</v>
+        <v>1146</v>
       </c>
       <c r="C7" s="16">
-        <v>1068</v>
+        <v>1180</v>
       </c>
       <c r="D7" s="17">
-        <v>-2.5000000000000001E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>1042</v>
+        <v>1146</v>
       </c>
       <c r="H7" s="16">
-        <v>1054</v>
+        <v>1165</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C8" s="16">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D8" s="17">
-        <v>-6.9000000000000006E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H8" s="16">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I8" s="16">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J8" s="16">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K8" s="16">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>1608</v>
+        <v>1759</v>
       </c>
       <c r="C9" s="16">
-        <v>1709</v>
+        <v>1877</v>
       </c>
       <c r="D9" s="17">
-        <v>-5.8999999999999997E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>1608</v>
+        <v>1759</v>
       </c>
       <c r="H9" s="16">
-        <v>1709</v>
+        <v>1877</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C10" s="16">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D10" s="17">
         <v>-0.13</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="16">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H10" s="16">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>4200</v>
+        <v>4613</v>
       </c>
       <c r="C13" s="13">
-        <v>4410</v>
+        <v>4860</v>
       </c>
       <c r="D13" s="14">
-        <v>-4.8000000000000001E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>3361</v>
+        <v>3691</v>
       </c>
       <c r="H13" s="13">
-        <v>3480</v>
+        <v>3835</v>
       </c>
       <c r="I13" s="13">
-        <v>839</v>
+        <v>922</v>
       </c>
       <c r="J13" s="13">
-        <v>930</v>
+        <v>1025</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>1112</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="16">
-        <v>1136</v>
+        <v>1253</v>
       </c>
       <c r="D14" s="17">
-        <v>-2.1000000000000001E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1675,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>823</v>
+        <v>905</v>
       </c>
       <c r="H14" s="16">
-        <v>848</v>
+        <v>937</v>
       </c>
       <c r="I14" s="16">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="J14" s="16">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="K14" s="16">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>1542</v>
+        <v>1696</v>
       </c>
       <c r="C15" s="16">
-        <v>1669</v>
+        <v>1839</v>
       </c>
       <c r="D15" s="17">
-        <v>-7.5999999999999998E-2</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>1193</v>
+        <v>1311</v>
       </c>
       <c r="H15" s="16">
-        <v>1246</v>
+        <v>1373</v>
       </c>
       <c r="I15" s="16">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="J15" s="16">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="K15" s="16">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>1546</v>
+        <v>1698</v>
       </c>
       <c r="C16" s="16">
-        <v>1604</v>
+        <v>1767</v>
       </c>
       <c r="D16" s="17">
-        <v>-3.6999999999999998E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1751,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>1345</v>
+        <v>1475</v>
       </c>
       <c r="H16" s="16">
-        <v>1386</v>
+        <v>1525</v>
       </c>
       <c r="I16" s="16">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J16" s="16">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="K16" s="16">
         <v>0</v>
@@ -1774,19 +1774,19 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C17" s="13">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D17" s="14">
-        <v>-3.4000000000000002E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F17" s="13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="13">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J17" s="13">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K17" s="13">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="17">
         <v>-0.19</v>
@@ -1871,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J19" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K19" s="16">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C20" s="16">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D20" s="17">
-        <v>-2.8000000000000001E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E20" s="16">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="16">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J20" s="16">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" s="16">
         <v>0</v>
@@ -1964,19 +1964,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" s="16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D22" s="17">
-        <v>-2.5999999999999999E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E22" s="16">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F22" s="16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -2002,31 +2002,31 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="C23" s="13">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="D23" s="14">
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="F23" s="13">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="G23" s="13">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H23" s="13">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="I23" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" s="13">
         <v>0</v>
@@ -2116,31 +2116,31 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="C26" s="16">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="D26" s="17">
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="F26" s="16">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="G26" s="16">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H26" s="16">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="I26" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" s="16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
@@ -2306,13 +2306,13 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>4558</v>
+        <v>4984</v>
       </c>
       <c r="C31" s="13">
-        <v>4508</v>
+        <v>4952</v>
       </c>
       <c r="D31" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E31" s="13">
         <v>0</v>
@@ -2321,16 +2321,16 @@
         <v>0</v>
       </c>
       <c r="G31" s="13">
-        <v>4249</v>
+        <v>4643</v>
       </c>
       <c r="H31" s="13">
-        <v>4162</v>
+        <v>4572</v>
       </c>
       <c r="I31" s="13">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="J31" s="13">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="K31" s="13">
         <v>0</v>
@@ -2420,13 +2420,13 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>3100</v>
+        <v>3374</v>
       </c>
       <c r="C34" s="16">
-        <v>3015</v>
+        <v>3299</v>
       </c>
       <c r="D34" s="17">
-        <v>2.8000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E34" s="16">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>3100</v>
+        <v>3374</v>
       </c>
       <c r="H34" s="16">
-        <v>3015</v>
+        <v>3299</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>665</v>
+        <v>732</v>
       </c>
       <c r="C36" s="16">
-        <v>670</v>
+        <v>738</v>
       </c>
       <c r="D36" s="17">
-        <v>-7.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>665</v>
+        <v>732</v>
       </c>
       <c r="H36" s="16">
-        <v>669</v>
+        <v>738</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J36" s="16">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="K36" s="16">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>793</v>
+        <v>878</v>
       </c>
       <c r="C39" s="16">
-        <v>823</v>
+        <v>914</v>
       </c>
       <c r="D39" s="17">
-        <v>-3.6999999999999998E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="E39" s="16">
         <v>0</v>
@@ -2625,16 +2625,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="16">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="H39" s="16">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="I39" s="16">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="J39" s="16">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="K39" s="16">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>7</v>
       </c>
       <c r="C46" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="14">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="L46" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>7</v>
       </c>
       <c r="C49" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" s="17">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="E49" s="16">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="L49" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,13 +3066,13 @@
         <v>60</v>
       </c>
       <c r="B51" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="13">
         <v>2</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="13">
         <v>2</v>
@@ -3332,13 +3332,13 @@
         <v>67</v>
       </c>
       <c r="B58" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="16">
         <v>2</v>
       </c>
       <c r="D58" s="17">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="E58" s="16">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="16">
         <v>2</v>
@@ -3408,13 +3408,13 @@
         <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="C60" s="13">
-        <v>653</v>
+        <v>718</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="13">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="H60" s="13">
-        <v>653</v>
+        <v>718</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>70</v>
       </c>
       <c r="B61" s="16">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="C61" s="16">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="D61" s="17">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="16">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="H61" s="16">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>71</v>
       </c>
       <c r="B62" s="16">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C62" s="16">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="E62" s="16">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="16">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H62" s="16">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I62" s="16">
         <v>0</v>
@@ -3522,10 +3522,10 @@
         <v>72</v>
       </c>
       <c r="B63" s="16">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C63" s="16">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D63" s="17">
         <v>-0.13</v>
@@ -3537,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="16">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H63" s="16">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>73</v>
       </c>
       <c r="B64" s="13">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C64" s="13">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="D64" s="14">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="13">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="J64" s="13">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="K64" s="13">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>75</v>
       </c>
       <c r="B66" s="16">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C66" s="16">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="D66" s="17">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3657,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="16">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="J66" s="16">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="K66" s="16">
         <v>0</v>
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>13365</v>
+        <v>14658</v>
       </c>
       <c r="C67" s="13">
-        <v>13771</v>
+        <v>15160</v>
       </c>
       <c r="D67" s="14">
-        <v>-2.9000000000000001E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="F67" s="13">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="G67" s="13">
-        <v>11106</v>
+        <v>12176</v>
       </c>
       <c r="H67" s="13">
-        <v>11412</v>
+        <v>12565</v>
       </c>
       <c r="I67" s="13">
-        <v>1866</v>
+        <v>2050</v>
       </c>
       <c r="J67" s="13">
-        <v>1971</v>
+        <v>2173</v>
       </c>
       <c r="K67" s="13">
         <v>7</v>
       </c>
       <c r="L67" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
